--- a/data/outputs/management/7.xlsx
+++ b/data/outputs/management/7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ95"/>
+  <dimension ref="A1:BR95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +936,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1150,6 +1156,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4524066</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1353,6 +1364,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1572,6 +1584,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4605762</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1779,6 +1796,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4614168</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1990,6 +2012,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>5061049</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2209,6 +2236,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>6142674</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2424,6 +2456,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2639,6 +2672,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4715478</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2850,6 +2888,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3061,6 +3100,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3264,6 +3304,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3483,6 +3524,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3698,6 +3740,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4157133</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3905,6 +3952,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4220135</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4112,6 +4164,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4315,6 +4368,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4530,6 +4584,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4733,6 +4788,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>51583458</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4948,6 +5008,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4353465</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5159,6 +5224,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4335289</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5378,6 +5448,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4385048</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5589,6 +5664,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5814,6 +5890,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>4435633</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6029,6 +6110,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4400110</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6244,6 +6330,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6447,6 +6534,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6642,6 +6730,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>6505798</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6849,6 +6942,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>3798784</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7064,6 +7162,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7275,6 +7374,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>51042917</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7486,6 +7590,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7697,6 +7802,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7912,6 +8018,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8131,6 +8238,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>3879251</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8342,6 +8454,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>3948843</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8557,6 +8674,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8768,6 +8886,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>3972441</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8971,6 +9094,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9174,6 +9298,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9377,6 +9502,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>3943275</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9584,6 +9714,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9795,6 +9926,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>3992556</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10006,6 +10142,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>3990248</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10209,6 +10350,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10420,6 +10562,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>21510412</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10635,6 +10782,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10850,6 +10998,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>4183669</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11061,6 +11214,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11252,6 +11406,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11455,6 +11610,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>4951300</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11666,6 +11826,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>2948040</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11869,6 +12034,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>2821728</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12080,6 +12250,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>3715995</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12287,6 +12462,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12498,6 +12674,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>3701818</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12701,6 +12882,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12904,6 +13086,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>44933937</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13103,6 +13290,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13326,6 +13514,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>4118276</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13541,6 +13734,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13756,6 +13950,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>3751729</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13959,6 +14158,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14174,6 +14374,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14385,6 +14586,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14588,6 +14790,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14803,6 +15006,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15014,6 +15218,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15221,6 +15426,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15412,6 +15618,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15615,6 +15822,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15818,6 +16026,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>3084958</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16029,6 +16242,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16236,6 +16450,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>3102624</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16443,6 +16662,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>3258989</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16668,6 +16892,11 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr">
+        <is>
+          <t>3703693</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16871,6 +17100,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>35912453</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17082,6 +17316,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17293,6 +17528,11 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>4203975</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17504,6 +17744,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>3716005</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17707,6 +17952,11 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>3018907</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17898,6 +18148,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18101,6 +18352,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>2827515</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18187,7 +18443,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>Wooden, Mark/0000-0003-2236-4166; </t>
+          <t>Wooden, Mark/0000-0003-2236-4166;</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -18322,6 +18578,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>2915468</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18533,6 +18794,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18752,6 +19014,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>2926810</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18975,6 +19242,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19186,6 +19454,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19405,6 +19674,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19616,6 +19886,11 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr">
+        <is>
+          <t>2948051</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19827,6 +20102,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20030,6 +20306,11 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>22925583</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20249,6 +20530,11 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr">
+        <is>
+          <t>3703555</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20456,6 +20742,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
